--- a/Mining.xlsx
+++ b/Mining.xlsx
@@ -200,7 +200,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -260,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -545,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +637,7 @@
         <v>24150</v>
       </c>
       <c r="C8">
-        <f>B8-$B$8</f>
+        <f t="shared" ref="C8:C17" si="0">B8-$B$8</f>
         <v>0</v>
       </c>
       <c r="D8">
@@ -653,19 +654,19 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <f>$B$8*(A9-1)</f>
+        <f t="shared" ref="B9:B17" si="1">$B$8*(A9-1)</f>
         <v>24150</v>
       </c>
       <c r="C9">
-        <f>B9-$B$8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D8+B9</f>
+        <f t="shared" ref="D9:D17" si="2">D8+B9</f>
         <v>48300</v>
       </c>
       <c r="E9">
-        <f>C9+E8</f>
+        <f t="shared" ref="E9:E17" si="3">C9+E8</f>
         <v>0</v>
       </c>
     </row>
@@ -674,19 +675,19 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <f>$B$8*(A10-1)</f>
+        <f t="shared" si="1"/>
         <v>48300</v>
       </c>
       <c r="C10">
-        <f>B10-$B$8</f>
+        <f t="shared" si="0"/>
         <v>24150</v>
       </c>
       <c r="D10">
-        <f>D9+B10</f>
+        <f t="shared" si="2"/>
         <v>96600</v>
       </c>
       <c r="E10">
-        <f>C10+E9</f>
+        <f t="shared" si="3"/>
         <v>24150</v>
       </c>
     </row>
@@ -695,19 +696,19 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <f>$B$8*(A11-1)</f>
+        <f t="shared" si="1"/>
         <v>72450</v>
       </c>
       <c r="C11">
-        <f>B11-$B$8</f>
+        <f t="shared" si="0"/>
         <v>48300</v>
       </c>
       <c r="D11">
-        <f>D10+B11</f>
+        <f t="shared" si="2"/>
         <v>169050</v>
       </c>
       <c r="E11">
-        <f>C11+E10</f>
+        <f t="shared" si="3"/>
         <v>72450</v>
       </c>
     </row>
@@ -716,19 +717,19 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f>$B$8*(A12-1)</f>
+        <f t="shared" si="1"/>
         <v>96600</v>
       </c>
       <c r="C12">
-        <f>B12-$B$8</f>
+        <f t="shared" si="0"/>
         <v>72450</v>
       </c>
       <c r="D12">
-        <f>D11+B12</f>
+        <f t="shared" si="2"/>
         <v>265650</v>
       </c>
       <c r="E12">
-        <f>C12+E11</f>
+        <f t="shared" si="3"/>
         <v>144900</v>
       </c>
     </row>
@@ -737,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <f>$B$8*(A13-1)</f>
+        <f t="shared" si="1"/>
         <v>120750</v>
       </c>
       <c r="C13">
-        <f>B13-$B$8</f>
+        <f t="shared" si="0"/>
         <v>96600</v>
       </c>
       <c r="D13">
-        <f>D12+B13</f>
+        <f t="shared" si="2"/>
         <v>386400</v>
       </c>
       <c r="E13">
-        <f>C13+E12</f>
+        <f t="shared" si="3"/>
         <v>241500</v>
       </c>
     </row>
@@ -758,19 +759,19 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <f>$B$8*(A14-1)</f>
+        <f t="shared" si="1"/>
         <v>144900</v>
       </c>
       <c r="C14">
-        <f>B14-$B$8</f>
+        <f t="shared" si="0"/>
         <v>120750</v>
       </c>
       <c r="D14">
-        <f>D13+B14</f>
+        <f t="shared" si="2"/>
         <v>531300</v>
       </c>
       <c r="E14">
-        <f>C14+E13</f>
+        <f t="shared" si="3"/>
         <v>362250</v>
       </c>
     </row>
@@ -779,19 +780,19 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <f>$B$8*(A15-1)</f>
+        <f t="shared" si="1"/>
         <v>169050</v>
       </c>
       <c r="C15">
-        <f>B15-$B$8</f>
+        <f t="shared" si="0"/>
         <v>144900</v>
       </c>
       <c r="D15">
-        <f>D14+B15</f>
+        <f t="shared" si="2"/>
         <v>700350</v>
       </c>
       <c r="E15">
-        <f>C15+E14</f>
+        <f t="shared" si="3"/>
         <v>507150</v>
       </c>
     </row>
@@ -800,19 +801,19 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <f>$B$8*(A16-1)</f>
+        <f t="shared" si="1"/>
         <v>193200</v>
       </c>
       <c r="C16">
-        <f>B16-$B$8</f>
+        <f t="shared" si="0"/>
         <v>169050</v>
       </c>
       <c r="D16">
-        <f>D15+B16</f>
+        <f t="shared" si="2"/>
         <v>893550</v>
       </c>
       <c r="E16">
-        <f>C16+E15</f>
+        <f t="shared" si="3"/>
         <v>676200</v>
       </c>
     </row>
@@ -821,19 +822,19 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <f>$B$8*(A17-1)</f>
+        <f t="shared" si="1"/>
         <v>217350</v>
       </c>
       <c r="C17">
-        <f>B17-$B$8</f>
+        <f t="shared" si="0"/>
         <v>193200</v>
       </c>
       <c r="D17">
-        <f>D16+B17</f>
+        <f t="shared" si="2"/>
         <v>1110900</v>
       </c>
       <c r="E17">
-        <f>C17+E16</f>
+        <f t="shared" si="3"/>
         <v>869400</v>
       </c>
     </row>
@@ -942,8 +943,8 @@
         <v>10</v>
       </c>
       <c r="B27" s="6">
-        <f>SUM(M32:M63)-B25</f>
-        <v>2178842.2499999991</v>
+        <f>NPV(B26/100,M32:M63)-B25</f>
+        <v>1955261.8186795837</v>
       </c>
       <c r="G27" t="s">
         <v>43</v>
@@ -1009,11 +1010,11 @@
         <v>56.962500000000006</v>
       </c>
       <c r="D32">
-        <f>$H$20/C32</f>
+        <f t="shared" ref="D32:D63" si="4">$H$20/C32</f>
         <v>4.8452929558920337</v>
       </c>
       <c r="E32">
-        <f>D32*$H$21</f>
+        <f t="shared" ref="E32:E63" si="5">D32*$H$21</f>
         <v>1.3566820276497695</v>
       </c>
       <c r="F32">
@@ -1021,11 +1022,11 @@
         <v>25.681974983541803</v>
       </c>
       <c r="G32">
-        <f>$B$23-F32</f>
+        <f t="shared" ref="G32:G63" si="6">$B$23-F32</f>
         <v>1.568025016458197</v>
       </c>
       <c r="H32" s="4">
-        <f>G32*C32*$B$24</f>
+        <f t="shared" ref="H32:H63" si="7">G32*C32*$B$24</f>
         <v>446.59312500000027</v>
       </c>
       <c r="I32" s="4">
@@ -1037,11 +1038,11 @@
         <v>321547.05000000016</v>
       </c>
       <c r="K32" s="5">
-        <f>I32/$B$25</f>
+        <f t="shared" ref="K32:K63" si="8">I32/$B$25</f>
         <v>4.0347204968944124E-2</v>
       </c>
       <c r="L32">
-        <f>IF(K32&gt;$B$26/100,1,0)</f>
+        <f t="shared" ref="L32:L63" si="9">IF(K32&gt;$B$26/100,1,0)</f>
         <v>1</v>
       </c>
       <c r="M32" s="4">
@@ -1063,11 +1064,11 @@
         <v>56.35</v>
       </c>
       <c r="D33">
-        <f>$H$20/C33</f>
+        <f t="shared" si="4"/>
         <v>4.8979591836734695</v>
       </c>
       <c r="E33">
-        <f>D33*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.3714285714285717</v>
       </c>
       <c r="F33">
@@ -1075,359 +1076,359 @@
         <v>25.749387755102042</v>
       </c>
       <c r="G33">
-        <f>$B$23-F33</f>
+        <f t="shared" si="6"/>
         <v>1.5006122448979582</v>
       </c>
       <c r="H33" s="4">
-        <f>G33*C33*$B$24</f>
+        <f t="shared" si="7"/>
         <v>422.79749999999973</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33:I63" si="0">H33*24</f>
+        <f t="shared" ref="I33:I63" si="10">H33*24</f>
         <v>10147.139999999994</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" ref="J33:J63" si="1">I33*30</f>
+        <f t="shared" ref="J33:J63" si="11">I33*30</f>
         <v>304414.19999999984</v>
       </c>
       <c r="K33" s="5">
-        <f>I33/$B$25</f>
+        <f t="shared" si="8"/>
         <v>3.8197402597402577E-2</v>
       </c>
       <c r="L33">
-        <f>IF(K33&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" ref="M33:M63" si="2">L33*J33</f>
+        <f t="shared" ref="M33:M63" si="12">L33*J33</f>
         <v>304414.19999999984</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" ref="N33:N63" si="3">IF(M33&gt;0,IF(M34=0,"SCRAP NOW!!",""),"")</f>
+        <f t="shared" ref="N33:N63" si="13">IF(M33&gt;0,IF(M34=0,"SCRAP NOW!!",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" ref="B34:B52" si="4">B33-1</f>
+        <f t="shared" ref="B34:B52" si="14">B33-1</f>
         <v>91</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C63" si="5">0.6125*B34</f>
+        <f t="shared" ref="C34:C63" si="15">0.6125*B34</f>
         <v>55.737500000000004</v>
       </c>
       <c r="D34">
-        <f>$H$20/C34</f>
+        <f t="shared" si="4"/>
         <v>4.9517829109665836</v>
       </c>
       <c r="E34">
-        <f>D34*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.3864992150706434</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F52" si="6">D34+E34+$D$5</f>
+        <f t="shared" ref="F34:F52" si="16">D34+E34+$D$5</f>
         <v>25.818282126037229</v>
       </c>
       <c r="G34">
-        <f>$B$23-F34</f>
+        <f t="shared" si="6"/>
         <v>1.4317178739627714</v>
       </c>
       <c r="H34" s="4">
-        <f>G34*C34*$B$24</f>
+        <f t="shared" si="7"/>
         <v>399.00187499999987</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>9576.0449999999964</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>287281.34999999992</v>
       </c>
       <c r="K34" s="5">
-        <f>I34/$B$25</f>
+        <f t="shared" si="8"/>
         <v>3.6047600225861079E-2</v>
       </c>
       <c r="L34">
-        <f>IF(K34&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>287281.34999999992</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>55.125000000000007</v>
       </c>
       <c r="D35">
-        <f>$H$20/C35</f>
+        <f t="shared" si="4"/>
         <v>5.0068027210884347</v>
       </c>
       <c r="E35">
-        <f>D35*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.4019047619047618</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>25.888707482993198</v>
       </c>
       <c r="G35">
-        <f>$B$23-F35</f>
+        <f t="shared" si="6"/>
         <v>1.3612925170068024</v>
       </c>
       <c r="H35" s="4">
-        <f>G35*C35*$B$24</f>
+        <f t="shared" si="7"/>
         <v>375.20624999999995</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>9004.9499999999989</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>270148.49999999994</v>
       </c>
       <c r="K35" s="5">
-        <f>I35/$B$25</f>
+        <f t="shared" si="8"/>
         <v>3.3897797854319588E-2</v>
       </c>
       <c r="L35">
-        <f>IF(K35&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>270148.49999999994</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>54.512500000000003</v>
       </c>
       <c r="D36">
-        <f>$H$20/C36</f>
+        <f t="shared" si="4"/>
         <v>5.0630589314377437</v>
       </c>
       <c r="E36">
-        <f>D36*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.4176565008025683</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>25.960715432240313</v>
       </c>
       <c r="G36">
-        <f>$B$23-F36</f>
+        <f t="shared" si="6"/>
         <v>1.2892845677596867</v>
       </c>
       <c r="H36" s="4">
-        <f>G36*C36*$B$24</f>
+        <f t="shared" si="7"/>
         <v>351.41062499999964</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>8433.8549999999923</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>253015.64999999976</v>
       </c>
       <c r="K36" s="5">
-        <f>I36/$B$25</f>
+        <f t="shared" si="8"/>
         <v>3.1747995482778062E-2</v>
       </c>
       <c r="L36">
-        <f>IF(K36&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>253015.64999999976</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>53.900000000000006</v>
       </c>
       <c r="D37">
-        <f>$H$20/C37</f>
+        <f t="shared" si="4"/>
         <v>5.120593692022263</v>
       </c>
       <c r="E37">
-        <f>D37*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.4337662337662338</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.034359925788497</v>
       </c>
       <c r="G37">
-        <f>$B$23-F37</f>
+        <f t="shared" si="6"/>
         <v>1.2156400742115032</v>
       </c>
       <c r="H37" s="4">
-        <f>G37*C37*$B$24</f>
+        <f t="shared" si="7"/>
         <v>327.61500000000012</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>7862.7600000000029</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>235882.80000000008</v>
       </c>
       <c r="K37" s="5">
-        <f>I37/$B$25</f>
+        <f t="shared" si="8"/>
         <v>2.9598193111236602E-2</v>
       </c>
       <c r="L37">
-        <f>IF(K37&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>235882.80000000008</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>53.287500000000001</v>
       </c>
       <c r="D38">
-        <f>$H$20/C38</f>
+        <f t="shared" si="4"/>
         <v>5.1794510907811402</v>
       </c>
       <c r="E38">
-        <f>D38*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.4502463054187194</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.109697396199859</v>
       </c>
       <c r="G38">
-        <f>$B$23-F38</f>
+        <f t="shared" si="6"/>
         <v>1.1403026038001407</v>
       </c>
       <c r="H38" s="4">
-        <f>G38*C38*$B$24</f>
+        <f t="shared" si="7"/>
         <v>303.81937499999998</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>7291.6649999999991</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>218749.94999999998</v>
       </c>
       <c r="K38" s="5">
-        <f>I38/$B$25</f>
+        <f t="shared" si="8"/>
         <v>2.7448390739695083E-2</v>
       </c>
       <c r="L38">
-        <f>IF(K38&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>218749.94999999998</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>52.675000000000004</v>
       </c>
       <c r="D39">
-        <f>$H$20/C39</f>
+        <f t="shared" si="4"/>
         <v>5.239677266255339</v>
       </c>
       <c r="E39">
-        <f>D39*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.4671096345514951</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.186786900806837</v>
       </c>
       <c r="G39">
-        <f>$B$23-F39</f>
+        <f t="shared" si="6"/>
         <v>1.0632130991931632</v>
       </c>
       <c r="H39" s="4">
-        <f>G39*C39*$B$24</f>
+        <f t="shared" si="7"/>
         <v>280.02374999999938</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>6720.5699999999852</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>201617.09999999957</v>
       </c>
       <c r="K39" s="5">
-        <f>I39/$B$25</f>
+        <f t="shared" si="8"/>
         <v>2.5298588368153529E-2</v>
       </c>
       <c r="L39">
-        <f>IF(K39&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>201617.09999999957</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -1437,267 +1438,267 @@
         <v>85</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>52.062500000000007</v>
       </c>
       <c r="D40">
-        <f>$H$20/C40</f>
+        <f t="shared" si="4"/>
         <v>5.3013205282112841</v>
       </c>
       <c r="E40">
-        <f>D40*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.4843697478991598</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.265690276110444</v>
       </c>
       <c r="G40">
-        <f>$B$23-F40</f>
+        <f t="shared" si="6"/>
         <v>0.98430972388955595</v>
       </c>
       <c r="H40" s="4">
-        <f>G40*C40*$B$24</f>
+        <f t="shared" si="7"/>
         <v>256.22812500000003</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>6149.4750000000004</v>
       </c>
       <c r="J40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>184484.25</v>
       </c>
       <c r="K40" s="5">
-        <f>I40/$B$25</f>
+        <f t="shared" si="8"/>
         <v>2.3148785996612086E-2</v>
       </c>
       <c r="L40">
-        <f>IF(K40&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>184484.25</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>51.45</v>
       </c>
       <c r="D41">
-        <f>$H$20/C41</f>
+        <f t="shared" si="4"/>
         <v>5.3644314868804663</v>
       </c>
       <c r="E41">
-        <f>D41*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.5020408163265306</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.346472303206998</v>
       </c>
       <c r="G41">
-        <f>$B$23-F41</f>
+        <f t="shared" si="6"/>
         <v>0.90352769679300238</v>
       </c>
       <c r="H41" s="4">
-        <f>G41*C41*$B$24</f>
+        <f t="shared" si="7"/>
         <v>232.43249999999989</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>5578.3799999999974</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>167351.39999999991</v>
       </c>
       <c r="K41" s="5">
-        <f>I41/$B$25</f>
+        <f t="shared" si="8"/>
         <v>2.0998983625070571E-2</v>
       </c>
       <c r="L41">
-        <f>IF(K41&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>167351.39999999991</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>SCRAP NOW!!</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>50.837500000000006</v>
       </c>
       <c r="D42">
-        <f>$H$20/C42</f>
+        <f t="shared" si="4"/>
         <v>5.429063191541676</v>
       </c>
       <c r="E42">
-        <f>D42*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.5201376936316695</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.429200885173344</v>
       </c>
       <c r="G42">
-        <f>$B$23-F42</f>
+        <f t="shared" si="6"/>
         <v>0.8207991148266558</v>
       </c>
       <c r="H42" s="4">
-        <f>G42*C42*$B$24</f>
+        <f t="shared" si="7"/>
         <v>208.63687500000057</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>5007.2850000000135</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>150218.5500000004</v>
       </c>
       <c r="K42" s="5">
-        <f>I42/$B$25</f>
+        <f t="shared" si="8"/>
         <v>1.8849181253529131E-2</v>
       </c>
       <c r="L42">
-        <f>IF(K42&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>50.225000000000001</v>
       </c>
       <c r="D43">
-        <f>$H$20/C43</f>
+        <f t="shared" si="4"/>
         <v>5.4952712792434042</v>
       </c>
       <c r="E43">
-        <f>D43*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.5386759581881533</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.513947237431559</v>
       </c>
       <c r="G43">
-        <f>$B$23-F43</f>
+        <f t="shared" si="6"/>
         <v>0.73605276256844121</v>
       </c>
       <c r="H43" s="4">
-        <f>G43*C43*$B$24</f>
+        <f t="shared" si="7"/>
         <v>184.8412499999998</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4436.1899999999951</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>133085.69999999984</v>
       </c>
       <c r="K43" s="5">
-        <f>I43/$B$25</f>
+        <f t="shared" si="8"/>
         <v>1.669937888198756E-2</v>
       </c>
       <c r="L43">
-        <f>IF(K43&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
       <c r="C44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>49.612500000000004</v>
       </c>
       <c r="D44">
-        <f>$H$20/C44</f>
+        <f t="shared" si="4"/>
         <v>5.5631141345427055</v>
       </c>
       <c r="E44">
-        <f>D44*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.5576719576719578</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.600786092214662</v>
       </c>
       <c r="G44">
-        <f>$B$23-F44</f>
+        <f t="shared" si="6"/>
         <v>0.64921390778533805</v>
       </c>
       <c r="H44" s="4">
-        <f>G44*C44*$B$24</f>
+        <f t="shared" si="7"/>
         <v>161.04562500000043</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3865.0950000000103</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>115952.85000000031</v>
       </c>
       <c r="K44" s="5">
-        <f>I44/$B$25</f>
+        <f t="shared" si="8"/>
         <v>1.4549576510446114E-2</v>
       </c>
       <c r="L44">
-        <f>IF(K44&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -1707,1023 +1708,1023 @@
         <v>80</v>
       </c>
       <c r="C45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="D45">
-        <f>$H$20/C45</f>
+        <f t="shared" si="4"/>
         <v>5.6326530612244898</v>
       </c>
       <c r="E45">
-        <f>D45*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.5771428571428574</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.689795918367349</v>
       </c>
       <c r="G45">
-        <f>$B$23-F45</f>
+        <f t="shared" si="6"/>
         <v>0.56020408163265145</v>
       </c>
       <c r="H45" s="4">
-        <f>G45*C45*$B$24</f>
+        <f t="shared" si="7"/>
         <v>137.2499999999996</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>3293.9999999999905</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>98819.999999999709</v>
       </c>
       <c r="K45" s="5">
-        <f>I45/$B$25</f>
+        <f t="shared" si="8"/>
         <v>1.2399774138904538E-2</v>
       </c>
       <c r="L45">
-        <f>IF(K45&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="C46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>48.387500000000003</v>
       </c>
       <c r="D46">
-        <f>$H$20/C46</f>
+        <f t="shared" si="4"/>
         <v>5.7039524670627744</v>
       </c>
       <c r="E46">
-        <f>D46*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.5971066907775771</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.781059157840353</v>
       </c>
       <c r="G46">
-        <f>$B$23-F46</f>
+        <f t="shared" si="6"/>
         <v>0.46894084215964682</v>
       </c>
       <c r="H46" s="4">
-        <f>G46*C46*$B$24</f>
+        <f t="shared" si="7"/>
         <v>113.45437499999957</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>2722.9049999999897</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>81687.149999999689</v>
       </c>
       <c r="K46" s="5">
-        <f>I46/$B$25</f>
+        <f t="shared" si="8"/>
         <v>1.0249971767363033E-2</v>
       </c>
       <c r="L46">
-        <f>IF(K46&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="C47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>47.775000000000006</v>
       </c>
       <c r="D47">
-        <f>$H$20/C47</f>
+        <f t="shared" si="4"/>
         <v>5.7770800627943482</v>
       </c>
       <c r="E47">
-        <f>D47*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.6175824175824176</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.874662480376767</v>
       </c>
       <c r="G47">
-        <f>$B$23-F47</f>
+        <f t="shared" si="6"/>
         <v>0.37533751962323336</v>
       </c>
       <c r="H47" s="4">
-        <f>G47*C47*$B$24</f>
+        <f t="shared" si="7"/>
         <v>89.658749999999884</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>2151.8099999999972</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>64554.299999999916</v>
       </c>
       <c r="K47" s="5">
-        <f>I47/$B$25</f>
+        <f t="shared" si="8"/>
         <v>8.1001693958215586E-3</v>
       </c>
       <c r="L47">
-        <f>IF(K47&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="C48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>47.162500000000001</v>
       </c>
       <c r="D48">
-        <f>$H$20/C48</f>
+        <f t="shared" si="4"/>
         <v>5.8521070765968721</v>
       </c>
       <c r="E48">
-        <f>D48*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.6385899814471243</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>26.970697058043996</v>
       </c>
       <c r="G48">
-        <f>$B$23-F48</f>
+        <f t="shared" si="6"/>
         <v>0.27930294195600425</v>
       </c>
       <c r="H48" s="4">
-        <f>G48*C48*$B$24</f>
+        <f t="shared" si="7"/>
         <v>65.863125000000252</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>1580.7150000000061</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>47421.450000000179</v>
       </c>
       <c r="K48" s="5">
-        <f>I48/$B$25</f>
+        <f t="shared" si="8"/>
         <v>5.9503670242800908E-3</v>
       </c>
       <c r="L48">
-        <f>IF(K48&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>46.550000000000004</v>
       </c>
       <c r="D49">
-        <f>$H$20/C49</f>
+        <f t="shared" si="4"/>
         <v>5.9291084854994622</v>
       </c>
       <c r="E49">
-        <f>D49*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.6601503759398495</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>27.069258861439312</v>
       </c>
       <c r="G49">
-        <f>$B$23-F49</f>
+        <f t="shared" si="6"/>
         <v>0.18074113856068763</v>
       </c>
       <c r="H49" s="4">
-        <f>G49*C49*$B$24</f>
+        <f t="shared" si="7"/>
         <v>42.067500000000052</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>1009.6200000000013</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>30288.600000000039</v>
       </c>
       <c r="K49" s="5">
-        <f>I49/$B$25</f>
+        <f t="shared" si="8"/>
         <v>3.8005646527385704E-3</v>
       </c>
       <c r="L49">
-        <f>IF(K49&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="C50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>45.9375</v>
       </c>
       <c r="D50">
-        <f>$H$20/C50</f>
+        <f t="shared" si="4"/>
         <v>6.0081632653061225</v>
       </c>
       <c r="E50">
-        <f>D50*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.6822857142857144</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>27.170448979591839</v>
       </c>
       <c r="G50">
-        <f>$B$23-F50</f>
+        <f t="shared" si="6"/>
         <v>7.9551020408160866E-2</v>
       </c>
       <c r="H50" s="4">
-        <f>G50*C50*$B$24</f>
+        <f t="shared" si="7"/>
         <v>18.271874999999447</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>438.52499999998673</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>13155.749999999602</v>
       </c>
       <c r="K50" s="5">
-        <f>I50/$B$25</f>
+        <f t="shared" si="8"/>
         <v>1.6507622811970139E-3</v>
       </c>
       <c r="L50">
-        <f>IF(K50&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="C51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>45.325000000000003</v>
       </c>
       <c r="D51">
-        <f>$H$20/C51</f>
+        <f t="shared" si="4"/>
         <v>6.0893546607832318</v>
       </c>
       <c r="E51">
-        <f>D51*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.705019305019305</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>27.274373965802539</v>
       </c>
       <c r="G51">
-        <f>$B$23-F51</f>
+        <f t="shared" si="6"/>
         <v>-2.4373965802539033E-2</v>
       </c>
       <c r="H51" s="4">
-        <f>G51*C51*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-5.5237500000004092</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-132.57000000000983</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-3977.100000000295</v>
       </c>
       <c r="K51" s="5">
-        <f>I51/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-4.9904009034447514E-4</v>
       </c>
       <c r="L51">
-        <f>IF(K51&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="C52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>44.712500000000006</v>
       </c>
       <c r="D52">
-        <f>$H$20/C52</f>
+        <f t="shared" si="4"/>
         <v>6.1727704780542343</v>
       </c>
       <c r="E52">
-        <f>D52*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.7283757338551857</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>27.381146211909421</v>
       </c>
       <c r="G52">
-        <f>$B$23-F52</f>
+        <f t="shared" si="6"/>
         <v>-0.13114621190942088</v>
       </c>
       <c r="H52" s="4">
-        <f>G52*C52*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-29.319374999999912</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-703.66499999999792</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-21109.949999999939</v>
       </c>
       <c r="K52" s="5">
-        <f>I52/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-2.6488424618859325E-3</v>
       </c>
       <c r="L52">
-        <f>IF(K52&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" ref="B53:B61" si="7">B52-1</f>
+        <f t="shared" ref="B53:B61" si="17">B52-1</f>
         <v>72</v>
       </c>
       <c r="C53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>44.1</v>
       </c>
       <c r="D53">
-        <f>$H$20/C53</f>
+        <f t="shared" si="4"/>
         <v>6.2585034013605441</v>
       </c>
       <c r="E53">
-        <f>D53*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.7523809523809526</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:F61" si="8">D53+E53+$D$5</f>
+        <f t="shared" ref="F53:F61" si="18">D53+E53+$D$5</f>
         <v>27.4908843537415</v>
       </c>
       <c r="G53">
-        <f>$B$23-F53</f>
+        <f t="shared" si="6"/>
         <v>-0.24088435374149952</v>
       </c>
       <c r="H53" s="4">
-        <f>G53*C53*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-53.115000000000649</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-1274.7600000000157</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-38242.800000000469</v>
       </c>
       <c r="K53" s="5">
-        <f>I53/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-4.798644833427501E-3</v>
       </c>
       <c r="L53">
-        <f>IF(K53&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="C54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>43.487500000000004</v>
       </c>
       <c r="D54">
-        <f>$H$20/C54</f>
+        <f t="shared" si="4"/>
         <v>6.3466513365909734</v>
       </c>
       <c r="E54">
-        <f>D54*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.7770623742454728</v>
       </c>
       <c r="F54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>27.603713710836445</v>
       </c>
       <c r="G54">
-        <f>$B$23-F54</f>
+        <f t="shared" si="6"/>
         <v>-0.35371371083644476</v>
       </c>
       <c r="H54" s="4">
-        <f>G54*C54*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-76.91062499999947</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-1845.8549999999873</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-55375.649999999616</v>
       </c>
       <c r="K54" s="5">
-        <f>I54/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-6.948447204968896E-3</v>
       </c>
       <c r="L54">
-        <f>IF(K54&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="C55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>42.875</v>
       </c>
       <c r="D55">
-        <f>$H$20/C55</f>
+        <f t="shared" si="4"/>
         <v>6.4373177842565594</v>
       </c>
       <c r="E55">
-        <f>D55*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.8024489795918368</v>
       </c>
       <c r="F55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>27.719766763848398</v>
       </c>
       <c r="G55">
-        <f>$B$23-F55</f>
+        <f t="shared" si="6"/>
         <v>-0.46976676384839777</v>
       </c>
       <c r="H55" s="4">
-        <f>G55*C55*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-100.70625000000028</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2416.9500000000066</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-72508.500000000204</v>
       </c>
       <c r="K55" s="5">
-        <f>I55/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-9.0982495765104705E-3</v>
       </c>
       <c r="L55">
-        <f>IF(K55&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="C56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>42.262500000000003</v>
       </c>
       <c r="D56">
-        <f>$H$20/C56</f>
+        <f t="shared" si="4"/>
         <v>6.5306122448979584</v>
       </c>
       <c r="E56">
-        <f>D56*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.8285714285714285</v>
       </c>
       <c r="F56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>27.839183673469385</v>
       </c>
       <c r="G56">
-        <f>$B$23-F56</f>
+        <f t="shared" si="6"/>
         <v>-0.58918367346938538</v>
       </c>
       <c r="H56" s="4">
-        <f>G56*C56*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-124.5018749999995</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-2988.0449999999882</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-89641.349999999642</v>
       </c>
       <c r="K56" s="5">
-        <f>I56/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-1.1248051948051905E-2</v>
       </c>
       <c r="L56">
-        <f>IF(K56&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="C57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>41.650000000000006</v>
       </c>
       <c r="D57">
-        <f>$H$20/C57</f>
+        <f t="shared" si="4"/>
         <v>6.6266506602641044</v>
       </c>
       <c r="E57">
-        <f>D57*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.8554621848739494</v>
       </c>
       <c r="F57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>27.962112845138055</v>
       </c>
       <c r="G57">
-        <f>$B$23-F57</f>
+        <f t="shared" si="6"/>
         <v>-0.71211284513805495</v>
       </c>
       <c r="H57" s="4">
-        <f>G57*C57*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-148.29749999999996</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-3559.139999999999</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-106774.19999999997</v>
       </c>
       <c r="K57" s="5">
-        <f>I57/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-1.3397854319593446E-2</v>
       </c>
       <c r="L57">
-        <f>IF(K57&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="C58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>41.037500000000001</v>
       </c>
       <c r="D58">
-        <f>$H$20/C58</f>
+        <f t="shared" si="4"/>
         <v>6.7255558939993909</v>
       </c>
       <c r="E58">
-        <f>D58*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.8831556503198297</v>
       </c>
       <c r="F58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>28.088711544319221</v>
       </c>
       <c r="G58">
-        <f>$B$23-F58</f>
+        <f t="shared" si="6"/>
         <v>-0.83871154431922079</v>
       </c>
       <c r="H58" s="4">
-        <f>G58*C58*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-172.09312500000013</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-4130.2350000000033</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-123907.0500000001</v>
       </c>
       <c r="K58" s="5">
-        <f>I58/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-1.5547656691134965E-2</v>
       </c>
       <c r="L58">
-        <f>IF(K58&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>66</v>
       </c>
       <c r="C59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>40.425000000000004</v>
       </c>
       <c r="D59">
-        <f>$H$20/C59</f>
+        <f t="shared" si="4"/>
         <v>6.8274582560296837</v>
       </c>
       <c r="E59">
-        <f>D59*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.9116883116883117</v>
       </c>
       <c r="F59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>28.219146567717996</v>
       </c>
       <c r="G59">
-        <f>$B$23-F59</f>
+        <f t="shared" si="6"/>
         <v>-0.96914656771799557</v>
       </c>
       <c r="H59" s="4">
-        <f>G59*C59*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-195.88874999999987</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-4701.3299999999972</v>
       </c>
       <c r="J59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-141039.89999999991</v>
       </c>
       <c r="K59" s="5">
-        <f>I59/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-1.7697459062676443E-2</v>
       </c>
       <c r="L59">
-        <f>IF(K59&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="C60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>39.8125</v>
       </c>
       <c r="D60">
-        <f>$H$20/C60</f>
+        <f t="shared" si="4"/>
         <v>6.9324960753532183</v>
       </c>
       <c r="E60">
-        <f>D60*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.9410989010989013</v>
       </c>
       <c r="F60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>28.353594976452122</v>
       </c>
       <c r="G60">
-        <f>$B$23-F60</f>
+        <f t="shared" si="6"/>
         <v>-1.103594976452122</v>
       </c>
       <c r="H60" s="4">
-        <f>G60*C60*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-219.68437500000053</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-5272.4250000000129</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-158172.75000000038</v>
       </c>
       <c r="K60" s="5">
-        <f>I60/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-1.9847261434218003E-2</v>
       </c>
       <c r="L60">
-        <f>IF(K60&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="C61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>39.200000000000003</v>
       </c>
       <c r="D61">
-        <f>$H$20/C61</f>
+        <f t="shared" si="4"/>
         <v>7.0408163265306118</v>
       </c>
       <c r="E61">
-        <f>D61*$H$21</f>
+        <f t="shared" si="5"/>
         <v>1.9714285714285715</v>
       </c>
       <c r="F61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>28.492244897959182</v>
       </c>
       <c r="G61">
-        <f>$B$23-F61</f>
+        <f t="shared" si="6"/>
         <v>-1.242244897959182</v>
       </c>
       <c r="H61" s="4">
-        <f>G61*C61*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-243.47999999999971</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-5843.5199999999932</v>
       </c>
       <c r="J61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-175305.5999999998</v>
       </c>
       <c r="K61" s="5">
-        <f>I61/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-2.1997063805759432E-2</v>
       </c>
       <c r="L61">
-        <f>IF(K61&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" ref="B62:B63" si="9">B61-1</f>
+        <f t="shared" ref="B62:B63" si="19">B61-1</f>
         <v>63</v>
       </c>
       <c r="C62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>38.587500000000006</v>
       </c>
       <c r="D62">
-        <f>$H$20/C62</f>
+        <f t="shared" si="4"/>
         <v>7.1525753158406209</v>
       </c>
       <c r="E62">
-        <f>D62*$H$21</f>
+        <f t="shared" si="5"/>
         <v>2.0027210884353739</v>
       </c>
       <c r="F62">
-        <f t="shared" ref="F62:F63" si="10">D62+E62+$D$5</f>
+        <f t="shared" ref="F62:F63" si="20">D62+E62+$D$5</f>
         <v>28.635296404275994</v>
       </c>
       <c r="G62">
-        <f>$B$23-F62</f>
+        <f t="shared" si="6"/>
         <v>-1.3852964042759943</v>
       </c>
       <c r="H62" s="4">
-        <f>G62*C62*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-267.27562499999971</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-6414.6149999999925</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-192438.44999999978</v>
       </c>
       <c r="K62" s="5">
-        <f>I62/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-2.414686617730093E-2</v>
       </c>
       <c r="L62">
-        <f>IF(K62&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>37.975000000000001</v>
       </c>
       <c r="D63">
-        <f>$H$20/C63</f>
+        <f t="shared" si="4"/>
         <v>7.267939433838051</v>
       </c>
       <c r="E63">
-        <f>D63*$H$21</f>
+        <f t="shared" si="5"/>
         <v>2.0350230414746546</v>
       </c>
       <c r="F63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>28.782962475312708</v>
       </c>
       <c r="G63">
-        <f>$B$23-F63</f>
+        <f t="shared" si="6"/>
         <v>-1.5329624753127078</v>
       </c>
       <c r="H63" s="4">
-        <f>G63*C63*$B$24</f>
+        <f t="shared" si="7"/>
         <v>-291.07125000000042</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>-6985.71000000001</v>
       </c>
       <c r="J63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-209571.30000000031</v>
       </c>
       <c r="K63" s="5">
-        <f>I63/$B$25</f>
+        <f t="shared" si="8"/>
         <v>-2.6296668548842498E-2</v>
       </c>
       <c r="L63">
-        <f>IF(K63&gt;$B$26/100,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>

--- a/Mining.xlsx
+++ b/Mining.xlsx
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
